--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb2/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb2/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754977FA-648F-4087-A235-E47FAF554D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057368C-7877-4DF4-9D2C-700EB18839FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3096" yWindow="1968" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+    <sheetView zoomScale="145" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1DD6FD-6B12-B642-8645-9450390C752E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1276,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="4">
-        <v>30300</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb2/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb2/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057368C-7877-4DF4-9D2C-700EB18839FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E0E7C-C6D8-4E65-B4A3-6E101D89E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="1968" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>所属进程</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Mail</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -941,6 +944,23 @@
       </c>
       <c r="F18" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1DD6FD-6B12-B642-8645-9450390C752E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
